--- a/biology/Botanique/Dicraeanthus_africanus/Dicraeanthus_africanus.xlsx
+++ b/biology/Botanique/Dicraeanthus_africanus/Dicraeanthus_africanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicraeanthus africanus, aussi appelé Diancreanthus ramosus, est une espèce de plantes à fleurs de la famille des Podostemaceae et du genre Dicraeanthus, endémique d'Afrique centrale, présente principalement au Cameroun.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvant atteindre près d’un mètre de haut, cette herbe se développe dans les cours d’eau rapides des cascades, accrochée aux pierres. Plante annuelle et dense, on la trouve aussi bien à 5 mètres qu’à 1 200 mètres d’altitude. Cependant, sa population est en train de diminuer.
-Elle est principalement menacée par la construction de barrages sur les cours d’eau[3].
+Elle est principalement menacée par la construction de barrages sur les cours d’eau.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dicraeanthus lui-même est surtout présent au Cameroun. L'espèce africana y est assez commune et a été observée sur sept sites dans quatre régions (Adamaoua, Centre, Littoral, Sud[4]). Des spécimens ont en outre été découverts en République centrafricaine, à proximité de la frontière[3]. D'autres auraient été vus au Gabon et en République démocratique du Congo, mais leur identification n'est pas certaine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dicraeanthus lui-même est surtout présent au Cameroun. L'espèce africana y est assez commune et a été observée sur sept sites dans quatre régions (Adamaoua, Centre, Littoral, Sud). Des spécimens ont en outre été découverts en République centrafricaine, à proximité de la frontière. D'autres auraient été vus au Gabon et en République démocratique du Congo, mais leur identification n'est pas certaine.
 </t>
         </is>
       </c>
